--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/137.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/137.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1624392590734316</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.95814984137855</v>
+        <v>-2.016151711837989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03893897852054987</v>
+        <v>0.05303282274209153</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.294952119148906</v>
+        <v>-0.3106593165109017</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1429315027492167</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.068102412984657</v>
+        <v>-2.147909371657772</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01878301462555528</v>
+        <v>0.02584526724128066</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2955551190104512</v>
+        <v>-0.3074501308070844</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1206060506297485</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.197364850617077</v>
+        <v>-2.288135310404825</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04955352814145611</v>
+        <v>0.0668390374897242</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3116317085394469</v>
+        <v>-0.3390441114462577</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09383114977748462</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.348824399375582</v>
+        <v>-2.45530935676578</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06909189169399632</v>
+        <v>0.08229510658008368</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3399902226091666</v>
+        <v>-0.3676274729219773</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06235213150319758</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.555750445083663</v>
+        <v>-2.681129154794265</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1059405854123501</v>
+        <v>0.1115997318127122</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3217542219537169</v>
+        <v>-0.345005487801438</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.03021657917665824</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.490707492705816</v>
+        <v>-2.617539680290919</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2344700789031337</v>
+        <v>0.252329387151129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3838807282699729</v>
+        <v>-0.4097907416912387</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.004145901169360518</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.358546859612943</v>
+        <v>-2.479716980701501</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3275583650351996</v>
+        <v>0.3371552611367425</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.407340780994694</v>
+        <v>-0.4365432028609588</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.04585296369940758</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.083073016084789</v>
+        <v>-2.214523335781436</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4483656641731672</v>
+        <v>0.4748436363017964</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3587518405773433</v>
+        <v>-0.37786679018352</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.09896107350387458</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.729574932602521</v>
+        <v>-1.87995769589398</v>
       </c>
       <c r="F10" t="n">
-        <v>0.532051240599781</v>
+        <v>0.5734596645060427</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2748253562157295</v>
+        <v>-0.2865568426261809</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1695286666552569</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.168012695925308</v>
+        <v>-1.322034629083357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5135451310475133</v>
+        <v>0.5627575119996819</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2252100019904701</v>
+        <v>-0.2411084656523749</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2621488438959605</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5960476166003705</v>
+        <v>-0.7356880760629694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4177426155144481</v>
+        <v>0.477041008678614</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1244783641024972</v>
+        <v>-0.1298834621350412</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.378216275820489</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03560961695315739</v>
+        <v>-0.1883554680797527</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2801929449180305</v>
+        <v>0.3531603083092837</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004039292571965787</v>
+        <v>-0.00846294279889195</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5174346422094858</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5630831027239546</v>
+        <v>0.434711294426989</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.00614000628625621</v>
+        <v>0.06360941111263416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1420621751814313</v>
+        <v>0.133414310338979</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6712233909415722</v>
       </c>
       <c r="E15" t="n">
-        <v>1.104054281175082</v>
+        <v>0.9762270708160254</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2285900133209237</v>
+        <v>-0.1480377000973999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2952241400139356</v>
+        <v>0.2930953898973907</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8306040696588635</v>
       </c>
       <c r="E16" t="n">
-        <v>1.657152619069297</v>
+        <v>1.559088489043414</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6172329143994557</v>
+        <v>-0.5360819814586594</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4554176964522562</v>
+        <v>0.4622346609887089</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9900117237459919</v>
       </c>
       <c r="E17" t="n">
-        <v>2.264268356182861</v>
+        <v>2.196608267602061</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8307430469734893</v>
+        <v>-0.7286944457075167</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5927235390174921</v>
+        <v>0.5968277342010364</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.147614003559402</v>
       </c>
       <c r="E18" t="n">
-        <v>2.74158143787037</v>
+        <v>2.686880736144475</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.141920176492679</v>
+        <v>-1.052172480392612</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7526163255490855</v>
+        <v>0.7642777296511732</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.298350864552447</v>
       </c>
       <c r="E19" t="n">
-        <v>3.175615774047162</v>
+        <v>3.146756463482261</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.433925414530146</v>
+        <v>-1.343268108469443</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9344667753198549</v>
+        <v>0.939917134843217</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.432187240949526</v>
       </c>
       <c r="E20" t="n">
-        <v>3.49053500682335</v>
+        <v>3.487966782231442</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.707897598596799</v>
+        <v>-1.61734249590246</v>
       </c>
       <c r="G20" t="n">
-        <v>1.116714358171351</v>
+        <v>1.145668571862162</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.543815506817646</v>
       </c>
       <c r="E21" t="n">
-        <v>3.858661312128433</v>
+        <v>3.891976689466788</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.975373298682955</v>
+        <v>-1.892732386665386</v>
       </c>
       <c r="G21" t="n">
-        <v>1.246398749702044</v>
+        <v>1.269927424687038</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.630761050083199</v>
       </c>
       <c r="E22" t="n">
-        <v>4.211919947723793</v>
+        <v>4.27491518265414</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.256557390294652</v>
+        <v>-2.173507664811629</v>
       </c>
       <c r="G22" t="n">
-        <v>1.400081951703003</v>
+        <v>1.42299010624936</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.693241306714673</v>
       </c>
       <c r="E23" t="n">
-        <v>4.323959658075854</v>
+        <v>4.386386934298837</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.554659059135708</v>
+        <v>-2.480381302582864</v>
       </c>
       <c r="G23" t="n">
-        <v>1.539598307077874</v>
+        <v>1.56740492296923</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.731809929677777</v>
       </c>
       <c r="E24" t="n">
-        <v>4.521604908094074</v>
+        <v>4.607525818147868</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.877706379633985</v>
+        <v>-2.840566406321495</v>
       </c>
       <c r="G24" t="n">
-        <v>1.62029808515858</v>
+        <v>1.654131779569207</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.746894566263924</v>
       </c>
       <c r="E25" t="n">
-        <v>4.544844493557068</v>
+        <v>4.631545069291407</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.10596883811856</v>
+        <v>-3.077241661905886</v>
       </c>
       <c r="G25" t="n">
-        <v>1.70788198998792</v>
+        <v>1.738722585812184</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.740265079486344</v>
       </c>
       <c r="E26" t="n">
-        <v>4.595474581205508</v>
+        <v>4.694181132391391</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.250787358135567</v>
+        <v>-3.238060118927116</v>
       </c>
       <c r="G26" t="n">
-        <v>1.830006252503887</v>
+        <v>1.876343798765056</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.712961590490418</v>
       </c>
       <c r="E27" t="n">
-        <v>4.5898227350456</v>
+        <v>4.688746833397029</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.390712526975893</v>
+        <v>-3.391996639271847</v>
       </c>
       <c r="G27" t="n">
-        <v>1.875431268708239</v>
+        <v>1.906341946840867</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.668073851170908</v>
       </c>
       <c r="E28" t="n">
-        <v>4.541331617850341</v>
+        <v>4.640086350623223</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.465922524234782</v>
+        <v>-3.492159588428411</v>
       </c>
       <c r="G28" t="n">
-        <v>1.859760572548516</v>
+        <v>1.899408178457141</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.610077964586114</v>
       </c>
       <c r="E29" t="n">
-        <v>4.443632499847185</v>
+        <v>4.531103980973525</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.521330619260721</v>
+        <v>-3.56537662004321</v>
       </c>
       <c r="G29" t="n">
-        <v>1.898475207727051</v>
+        <v>1.930837173662042</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.5433248707836</v>
       </c>
       <c r="E30" t="n">
-        <v>4.398465912154925</v>
+        <v>4.49939465653517</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.6332148344911</v>
+        <v>-3.689174097671358</v>
       </c>
       <c r="G30" t="n">
-        <v>1.924094671578225</v>
+        <v>1.977282763481939</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.473234717929413</v>
       </c>
       <c r="E31" t="n">
-        <v>4.215218196361156</v>
+        <v>4.313066239269584</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.579334679792297</v>
+        <v>-3.648586220792187</v>
       </c>
       <c r="G31" t="n">
-        <v>1.910720631065502</v>
+        <v>1.954139541192945</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.403986248941594</v>
       </c>
       <c r="E32" t="n">
-        <v>4.103762505245458</v>
+        <v>4.193409458027253</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.503046437018272</v>
+        <v>-3.572196504675844</v>
       </c>
       <c r="G32" t="n">
-        <v>1.819603409856163</v>
+        <v>1.852343528246699</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.338511885991096</v>
       </c>
       <c r="E33" t="n">
-        <v>3.883391606692245</v>
+        <v>3.967639301633858</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.509656074725815</v>
+        <v>-3.576055411780116</v>
       </c>
       <c r="G33" t="n">
-        <v>1.782249539498354</v>
+        <v>1.812028680360528</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.27917294212299</v>
       </c>
       <c r="E34" t="n">
-        <v>3.719966963828743</v>
+        <v>3.783606079967181</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.470084391317917</v>
+        <v>-3.528601658753447</v>
       </c>
       <c r="G34" t="n">
-        <v>1.684494939667744</v>
+        <v>1.712529323061282</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.224864166983551</v>
       </c>
       <c r="E35" t="n">
-        <v>3.625141220468496</v>
+        <v>3.687590397412843</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.379673833384578</v>
+        <v>-3.440865178898607</v>
       </c>
       <c r="G35" t="n">
-        <v>1.620930285981943</v>
+        <v>1.655885297326388</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.175055242760306</v>
       </c>
       <c r="E36" t="n">
-        <v>3.420178209418642</v>
+        <v>3.462194013330722</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.292510422405419</v>
+        <v>-3.330665859165136</v>
       </c>
       <c r="G36" t="n">
-        <v>1.52407069563106</v>
+        <v>1.550329660546053</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.127657547749451</v>
       </c>
       <c r="E37" t="n">
-        <v>3.249431425379233</v>
+        <v>3.286328300684587</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.212806397122713</v>
+        <v>-3.24551439445525</v>
       </c>
       <c r="G37" t="n">
-        <v>1.400303879012821</v>
+        <v>1.41677176143018</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.080054696867243</v>
       </c>
       <c r="E38" t="n">
-        <v>3.125743451357903</v>
+        <v>3.154458217161804</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.0918056416127</v>
+        <v>-3.113294629414695</v>
       </c>
       <c r="G38" t="n">
-        <v>1.340288602236019</v>
+        <v>1.362263786052285</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.030851891157918</v>
       </c>
       <c r="E39" t="n">
-        <v>2.80549796314608</v>
+        <v>2.803431995097444</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.957948432638191</v>
+        <v>-2.964020042624235</v>
       </c>
       <c r="G39" t="n">
-        <v>1.208482760829236</v>
+        <v>1.207389184809145</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9766419319418267</v>
       </c>
       <c r="E40" t="n">
-        <v>2.553903936168784</v>
+        <v>2.541724214994423</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.851373682290401</v>
+        <v>-2.848035282330538</v>
       </c>
       <c r="G40" t="n">
-        <v>1.184866482958788</v>
+        <v>1.18825963472206</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9167250857620456</v>
       </c>
       <c r="E41" t="n">
-        <v>2.376919826685013</v>
+        <v>2.363401241411289</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.764797210643788</v>
+        <v>-2.757431268025154</v>
       </c>
       <c r="G41" t="n">
-        <v>1.063024009724366</v>
+        <v>1.059184083245276</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8499289023275158</v>
       </c>
       <c r="E42" t="n">
-        <v>2.146262889331348</v>
+        <v>2.111683110346266</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.661316302200634</v>
+        <v>-2.642015926486912</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9701284499402998</v>
+        <v>0.9587867963701211</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7771398220143024</v>
       </c>
       <c r="E43" t="n">
-        <v>2.031538150540106</v>
+        <v>1.995929037650934</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.587243682404563</v>
+        <v>-2.575592498639112</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8643348253211464</v>
+        <v>0.8505899325933319</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7006929685191329</v>
       </c>
       <c r="E44" t="n">
-        <v>1.823741186145798</v>
+        <v>1.782137115795354</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.577425589017248</v>
+        <v>-2.559173527832798</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7897190676352573</v>
+        <v>0.7741695554670797</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6223112635300152</v>
       </c>
       <c r="E45" t="n">
-        <v>1.583782282404953</v>
+        <v>1.529811604724513</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.46772852582705</v>
+        <v>-2.438253074967785</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6860906943349215</v>
+        <v>0.676839829630924</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.545386714929148</v>
       </c>
       <c r="E46" t="n">
-        <v>1.386991160519915</v>
+        <v>1.316491278402298</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.424324946204561</v>
+        <v>-2.392646282776115</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6629708328153823</v>
+        <v>0.6575248534362929</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4716673549777485</v>
       </c>
       <c r="E47" t="n">
-        <v>1.106286694706081</v>
+        <v>1.009619830703198</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.36102529124726</v>
+        <v>-2.330739513697541</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5533708628232299</v>
+        <v>0.533651453307417</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4030952344354698</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9482072879033966</v>
+        <v>0.8445613940259699</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.308771630121729</v>
+        <v>-2.267739168598876</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4657285560702534</v>
+        <v>0.4405952882333511</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.34100938567976</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7231978165653661</v>
+        <v>0.598753537632945</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.248089111367381</v>
+        <v>-2.211471835271437</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3920253284411823</v>
+        <v>0.3654582933790076</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2848013711790662</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5970963830497636</v>
+        <v>0.480911596167613</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.198018222137759</v>
+        <v>-2.152797612666134</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3174533721980206</v>
+        <v>0.2936910895184814</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2343856941819318</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4266722696384457</v>
+        <v>0.2985574298054802</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.153619619741316</v>
+        <v>-2.116781876383644</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2615700315184901</v>
+        <v>0.2437019629819494</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1876655778710803</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3058591303081146</v>
+        <v>0.1808191517546027</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.075796866423746</v>
+        <v>-2.025244161324123</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2268749087342267</v>
+        <v>0.2112450939210491</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1430179907001234</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1710178489203326</v>
+        <v>0.03471943953782373</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.024545528312623</v>
+        <v>-1.972394800577501</v>
       </c>
       <c r="G53" t="n">
-        <v>0.131015451325616</v>
+        <v>0.1157886097855292</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0991825837038339</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1302153449717981</v>
+        <v>0.005452775555558859</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.975495212698546</v>
+        <v>-1.922657532336651</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06607397229008803</v>
+        <v>0.03748623067009571</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05540699158354473</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.06225257451605933</v>
+        <v>-0.2114154676275647</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.962852656279367</v>
+        <v>-1.906504290282882</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02264046168173606</v>
+        <v>-0.01029968329725509</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01193709948426984</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1824962950909361</v>
+        <v>-0.3363065212758039</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.850504875780125</v>
+        <v>-1.794476260315549</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.004852243870074737</v>
+        <v>-0.02197422783216105</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03081113098251006</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3392412179385304</v>
+        <v>-0.5046938676003041</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.771627237716873</v>
+        <v>-1.702618064700073</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05536260757506117</v>
+        <v>-0.07140999614223868</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07289799488869111</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.380794186605792</v>
+        <v>-0.5340203935542963</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.760414068378694</v>
+        <v>-1.694384853515439</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1388875787116751</v>
+        <v>-0.1697836563633941</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1137501280264604</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6199690445218187</v>
+        <v>-0.8027086635799514</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.715813979345706</v>
+        <v>-1.645590046317271</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1602013607427603</v>
+        <v>-0.1965244371483869</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1537324353491094</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6435269204686305</v>
+        <v>-0.8313533470754891</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.641979347388453</v>
+        <v>-1.566163430171837</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2005381093502949</v>
+        <v>-0.2381431079797394</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1925759295391811</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7925642494443178</v>
+        <v>-0.998467531464717</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.649393471594088</v>
+        <v>-1.565379384347019</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2471764255181915</v>
+        <v>-0.2877803629263624</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2298305616058231</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9643535078206352</v>
+        <v>-1.186632689228666</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.586662505368196</v>
+        <v>-1.493263228992766</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3023618632102676</v>
+        <v>-0.3521407428217088</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2653757599364466</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.043639959349341</v>
+        <v>-1.284407729732549</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.621639417434004</v>
+        <v>-1.531599711715756</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3610309756472518</v>
+        <v>-0.4086548242765118</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2984462073689781</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.249649824880377</v>
+        <v>-1.509206954145489</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.588058311343104</v>
+        <v>-1.496364371137856</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4066238973820578</v>
+        <v>-0.4617363326695884</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3280511358849661</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.425430854737239</v>
+        <v>-1.713442861246071</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.53107701449921</v>
+        <v>-1.427019387060147</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4633891071084971</v>
+        <v>-0.527437036712389</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3532352070715622</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.554080072171477</v>
+        <v>-1.84567649674349</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.563650687407383</v>
+        <v>-1.465604077958591</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4652667289534057</v>
+        <v>-0.5254659717896623</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3736014825245846</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.696101870070348</v>
+        <v>-1.995824192292313</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.527680942639757</v>
+        <v>-1.43112066214751</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5168677485823009</v>
+        <v>-0.5830780094088286</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3888044727507885</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.848237421094943</v>
+        <v>-2.158879442988815</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.554464064819386</v>
+        <v>-1.45774463908523</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.528251743547116</v>
+        <v>-0.5960067352538251</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.398900066693092</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.949485185983053</v>
+        <v>-2.266106104809195</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.568200197258655</v>
+        <v>-1.474688497180225</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5353373569322959</v>
+        <v>-0.6027200363758233</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4040835062851929</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.078475324646518</v>
+        <v>-2.399357393825977</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.574179094190926</v>
+        <v>-1.482371270234587</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6182272071493646</v>
+        <v>-0.6974026950231615</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.404880311652044</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.156133822553861</v>
+        <v>-2.494361993077361</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.585011190977378</v>
+        <v>-1.503831057074763</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6632915914752616</v>
+        <v>-0.7506039273596927</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4013998035938195</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.241148042743201</v>
+        <v>-2.59511188156647</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.584551275828741</v>
+        <v>-1.502655718361582</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6667796463644424</v>
+        <v>-0.7514259344348743</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3936575119561235</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.225854038990933</v>
+        <v>-2.57561366933643</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.576487430222653</v>
+        <v>-1.489586827899858</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7195691451393373</v>
+        <v>-0.8152986582678571</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3811697913969251</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.268180833146376</v>
+        <v>-2.618512802343509</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.562717716677293</v>
+        <v>-1.481353616715224</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7169746396817926</v>
+        <v>-0.8164228952978568</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.363449799077825</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.164802128069585</v>
+        <v>-2.506923516827494</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.512870214805579</v>
+        <v>-1.421449303593331</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7382650609434233</v>
+        <v>-0.8454705520664854</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3401408036314887</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.139896627734865</v>
+        <v>-2.476650879710593</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.395025353244065</v>
+        <v>-1.297225491922637</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7400682203356955</v>
+        <v>-0.8410247056296684</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.311095174586581</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.987015722159861</v>
+        <v>-2.322729689870816</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.408815507462698</v>
+        <v>-1.307788939860361</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7009316312588878</v>
+        <v>-0.799627962108134</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2765893017826377</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.834667734138038</v>
+        <v>-2.160689902621541</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.371096625082162</v>
+        <v>-1.276641733937006</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7109198202487942</v>
+        <v>-0.8169747934762203</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2373289407655151</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.662092969888812</v>
+        <v>-1.987145666439952</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.314071526795541</v>
+        <v>-1.236915285431471</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6814779504956203</v>
+        <v>-0.7761124275559586</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.193948791516723</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.463929402798319</v>
+        <v>-1.757444330561786</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.302808715822272</v>
+        <v>-1.22507137531802</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6119212594447299</v>
+        <v>-0.7019901661247966</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1472889982117198</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.300643464503454</v>
+        <v>-1.592549419270739</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.190602559987847</v>
+        <v>-1.111111701726414</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5542391395171999</v>
+        <v>-0.6377422099324502</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09825057659701748</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.080970468937695</v>
+        <v>-1.34596335724526</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.1623608497654</v>
+        <v>-1.077905827994877</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5135899406182108</v>
+        <v>-0.5873632505556456</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.04912430813333681</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.8077764905034955</v>
+        <v>-1.055514530472702</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.075927462831696</v>
+        <v>-0.9972644518378082</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.483875041872037</v>
+        <v>-0.5497363512048375</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.002062090513853208</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4912176237212169</v>
+        <v>-0.7106759922176125</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.010223838692714</v>
+        <v>-0.9365790129872791</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.427744953065143</v>
+        <v>-0.4866768741584908</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.04072225383754042</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2576055490315523</v>
+        <v>-0.461039889730225</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9527884668925475</v>
+        <v>-0.8809205197137486</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3860576599735178</v>
+        <v>-0.4416110297845029</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.0779362683927632</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01523801786082896</v>
+        <v>-0.1556211898815797</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8976701914126531</v>
+        <v>-0.8296436307610351</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2960106540148147</v>
+        <v>-0.3405698617012573</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1100205204208434</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2707274531446694</v>
+        <v>0.1237385716405271</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7960347837564078</v>
+        <v>-0.7392038718658775</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2301712454033779</v>
+        <v>-0.2661643509404591</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1376157370563346</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4779024370522502</v>
+        <v>0.3465141693994673</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.668433880851442</v>
+        <v>-0.6213925914104547</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1982224730781137</v>
+        <v>-0.2321247897490137</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1604877993027425</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7629782868502646</v>
+        <v>0.6589235795073833</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5148295214473924</v>
+        <v>-0.4801227182784016</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1209070864721345</v>
+        <v>-0.1433947471683103</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.177677594627273</v>
       </c>
       <c r="E90" t="n">
-        <v>1.013959093629379</v>
+        <v>0.9333498385303097</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3789983274539743</v>
+        <v>-0.3486278671149824</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06629544767978551</v>
+        <v>-0.08494756204114413</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1879803359128299</v>
       </c>
       <c r="E91" t="n">
-        <v>1.194279413000876</v>
+        <v>1.128091052895712</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1998037051605678</v>
+        <v>-0.1720788519623025</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0386333765494293</v>
+        <v>-0.04599639907188187</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1904957581335219</v>
       </c>
       <c r="E92" t="n">
-        <v>1.320888943252115</v>
+        <v>1.270981579408674</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.05198697638888027</v>
+        <v>-0.03415832915079414</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03976783391606536</v>
+        <v>-0.04479915963733674</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.18564125692036</v>
       </c>
       <c r="E93" t="n">
-        <v>1.429398257320358</v>
+        <v>1.391845820422187</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1104813349750761</v>
+        <v>0.1276704811493442</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0391195725637019</v>
+        <v>-0.04634681061369996</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1758132730534168</v>
       </c>
       <c r="E94" t="n">
-        <v>1.442957723940627</v>
+        <v>1.418236189665361</v>
       </c>
       <c r="F94" t="n">
-        <v>0.246667320654585</v>
+        <v>0.2595347244797633</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06144516792178682</v>
+        <v>-0.05870465765515118</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1632154066760816</v>
       </c>
       <c r="E95" t="n">
-        <v>1.487576793598797</v>
+        <v>1.482622850426344</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4099152976990866</v>
+        <v>0.4298931357269903</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0827093083177811</v>
+        <v>-0.07348034433514722</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1494340508355404</v>
       </c>
       <c r="E96" t="n">
-        <v>1.432203009702994</v>
+        <v>1.428310521492631</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4516595326662572</v>
+        <v>0.4724768983464335</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1199449147802256</v>
+        <v>-0.1136988290473182</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.136172287769368</v>
       </c>
       <c r="E97" t="n">
-        <v>1.361117648300922</v>
+        <v>1.362218524561467</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5279704061856912</v>
+        <v>0.5486096459987766</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1565804414773067</v>
+        <v>-0.1566665843146703</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1231313393074648</v>
       </c>
       <c r="E98" t="n">
-        <v>1.269108337708038</v>
+        <v>1.263638997559494</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5525590760846847</v>
+        <v>0.5747211460565879</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.194843921795751</v>
+        <v>-0.1918814842192972</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1123578043741953</v>
       </c>
       <c r="E99" t="n">
-        <v>1.210766276043417</v>
+        <v>1.198304765587511</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5741867684553152</v>
+        <v>0.5940259019145826</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2155736845904727</v>
+        <v>-0.2212518116160166</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1016817393195534</v>
       </c>
       <c r="E100" t="n">
-        <v>1.111227497445717</v>
+        <v>1.105461767534718</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5467787456927772</v>
+        <v>0.5765301456412237</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2318955621987411</v>
+        <v>-0.2354887405504673</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.09222739012690312</v>
       </c>
       <c r="E101" t="n">
-        <v>1.025097800514921</v>
+        <v>1.014692037771015</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5311839720337813</v>
+        <v>0.5602841905336826</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2233075593280161</v>
+        <v>-0.2243398133282885</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.07382655271230064</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9563645765873036</v>
+        <v>0.9592291909416664</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4731689611415242</v>
+        <v>0.493338065469337</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2507535433409178</v>
+        <v>-0.2585735609158248</v>
       </c>
     </row>
   </sheetData>
